--- a/VersionRecords/Version 5.2.5 20170110/版本Bug和特性计划及评审表v5.2.5_EQ组.xlsx
+++ b/VersionRecords/Version 5.2.5 20170110/版本Bug和特性计划及评审表v5.2.5_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.2.5 20170110\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
   <si>
     <t>No</t>
   </si>
@@ -321,13 +316,23 @@
   <si>
     <t>脚本修复，执行脚本(配置文件中的TeleRepairDataQuartz.sh)</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1110,7 +1115,7 @@
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="甘特图 2" xfId="14"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1479,14 +1484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
@@ -1513,7 +1518,7 @@
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="30" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="30" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="78">
         <v>1</v>
       </c>
@@ -1619,10 +1624,18 @@
       <c r="M2" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="47"/>
+      <c r="N2" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="80">
+        <v>42744</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>89</v>
+      </c>
       <c r="R2" s="77" t="s">
         <v>78</v>
       </c>
@@ -1632,7 +1645,7 @@
       <c r="V2" s="53"/>
       <c r="W2" s="54"/>
     </row>
-    <row r="3" spans="1:23" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="78">
         <v>2</v>
       </c>
@@ -1670,10 +1683,18 @@
       <c r="M3" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="47"/>
+      <c r="N3" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="80">
+        <v>42744</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>89</v>
+      </c>
       <c r="R3" s="77" t="s">
         <v>75</v>
       </c>
@@ -1683,7 +1704,7 @@
       <c r="V3" s="53"/>
       <c r="W3" s="84"/>
     </row>
-    <row r="4" spans="1:23" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" s="31" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -1708,7 +1729,7 @@
       <c r="V4" s="53"/>
       <c r="W4" s="54"/>
     </row>
-    <row r="5" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1733,7 +1754,7 @@
       <c r="V5" s="55"/>
       <c r="W5" s="54"/>
     </row>
-    <row r="6" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -1758,7 +1779,7 @@
       <c r="V6" s="55"/>
       <c r="W6" s="54"/>
     </row>
-    <row r="7" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1783,7 +1804,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="54"/>
     </row>
-    <row r="8" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -1808,7 +1829,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="54"/>
     </row>
-    <row r="9" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -1833,7 +1854,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="54"/>
     </row>
-    <row r="10" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1858,7 +1879,7 @@
       <c r="V10" s="55"/>
       <c r="W10" s="54"/>
     </row>
-    <row r="11" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -1883,7 +1904,7 @@
       <c r="V11" s="55"/>
       <c r="W11" s="54"/>
     </row>
-    <row r="12" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -1908,7 +1929,7 @@
       <c r="V12" s="55"/>
       <c r="W12" s="54"/>
     </row>
-    <row r="13" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -1933,7 +1954,7 @@
       <c r="V13" s="55"/>
       <c r="W13" s="54"/>
     </row>
-    <row r="14" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -1958,7 +1979,7 @@
       <c r="V14" s="55"/>
       <c r="W14" s="54"/>
     </row>
-    <row r="15" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -1983,7 +2004,7 @@
       <c r="V15" s="55"/>
       <c r="W15" s="54"/>
     </row>
-    <row r="16" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -2008,7 +2029,7 @@
       <c r="V16" s="55"/>
       <c r="W16" s="54"/>
     </row>
-    <row r="17" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2033,7 +2054,7 @@
       <c r="V17" s="57"/>
       <c r="W17" s="54"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2057,7 +2078,7 @@
       <c r="U18" s="44"/>
       <c r="V18" s="45"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2081,7 +2102,7 @@
       <c r="U19" s="44"/>
       <c r="V19" s="45"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2105,7 +2126,7 @@
       <c r="U20" s="44"/>
       <c r="V20" s="45"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2129,7 +2150,7 @@
       <c r="U21" s="44"/>
       <c r="V21" s="55"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2153,7 +2174,7 @@
       <c r="U22" s="44"/>
       <c r="V22" s="55"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2177,7 +2198,7 @@
       <c r="U23" s="44"/>
       <c r="V23" s="55"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2201,7 +2222,7 @@
       <c r="U24" s="58"/>
       <c r="V24" s="59"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2225,7 +2246,7 @@
       <c r="U25" s="60"/>
       <c r="V25" s="59"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2249,7 +2270,7 @@
       <c r="U26" s="61"/>
       <c r="V26" s="59"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2273,7 +2294,7 @@
       <c r="U27" s="60"/>
       <c r="V27" s="59"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2297,7 +2318,7 @@
       <c r="U28" s="60"/>
       <c r="V28" s="59"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2321,7 +2342,7 @@
       <c r="U29" s="56"/>
       <c r="V29" s="47"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2345,7 +2366,7 @@
       <c r="U30" s="44"/>
       <c r="V30" s="55"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2369,7 +2390,7 @@
       <c r="U31" s="44"/>
       <c r="V31" s="55"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2393,7 +2414,7 @@
       <c r="U32" s="44"/>
       <c r="V32" s="55"/>
     </row>
-    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" ht="16.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2417,7 +2438,7 @@
       <c r="U33" s="60"/>
       <c r="V33" s="59"/>
     </row>
-    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" ht="16.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2441,7 +2462,7 @@
       <c r="U34" s="44"/>
       <c r="V34" s="53"/>
     </row>
-    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2465,7 +2486,7 @@
       <c r="U35" s="44"/>
       <c r="V35" s="55"/>
     </row>
-    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2489,7 +2510,7 @@
       <c r="U36" s="44"/>
       <c r="V36" s="55"/>
     </row>
-    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2513,7 +2534,7 @@
       <c r="U37" s="44"/>
       <c r="V37" s="55"/>
     </row>
-    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2537,7 +2558,7 @@
       <c r="U38" s="44"/>
       <c r="V38" s="55"/>
     </row>
-    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2561,7 +2582,7 @@
       <c r="U39" s="44"/>
       <c r="V39" s="55"/>
     </row>
-    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2585,7 +2606,7 @@
       <c r="U40" s="44"/>
       <c r="V40" s="55"/>
     </row>
-    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2609,7 +2630,7 @@
       <c r="U41" s="44"/>
       <c r="V41" s="55"/>
     </row>
-    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2633,7 +2654,7 @@
       <c r="U42" s="44"/>
       <c r="V42" s="55"/>
     </row>
-    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2657,7 +2678,7 @@
       <c r="U43" s="44"/>
       <c r="V43" s="55"/>
     </row>
-    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2681,7 +2702,7 @@
       <c r="U44" s="44"/>
       <c r="V44" s="55"/>
     </row>
-    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2705,7 +2726,7 @@
       <c r="U45" s="56"/>
       <c r="V45" s="55"/>
     </row>
-    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2729,7 +2750,7 @@
       <c r="U46" s="56"/>
       <c r="V46" s="55"/>
     </row>
-    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2753,7 +2774,7 @@
       <c r="U47" s="44"/>
       <c r="V47" s="45"/>
     </row>
-    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2777,7 +2798,7 @@
       <c r="U48" s="44"/>
       <c r="V48" s="45"/>
     </row>
-    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22" ht="16.5">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2801,7 +2822,7 @@
       <c r="U49" s="44"/>
       <c r="V49" s="45"/>
     </row>
-    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22" ht="16.5">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2825,7 +2846,7 @@
       <c r="U50" s="44"/>
       <c r="V50" s="45"/>
     </row>
-    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22" ht="16.5">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2849,7 +2870,7 @@
       <c r="U51" s="44"/>
       <c r="V51" s="45"/>
     </row>
-    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22" ht="16.5">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2873,7 +2894,7 @@
       <c r="U52" s="44"/>
       <c r="V52" s="45"/>
     </row>
-    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:22" ht="16.5">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -2897,7 +2918,7 @@
       <c r="U53" s="44"/>
       <c r="V53" s="45"/>
     </row>
-    <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:22" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -2921,7 +2942,7 @@
       <c r="U54" s="44"/>
       <c r="V54" s="45"/>
     </row>
-    <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:22" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -2945,7 +2966,7 @@
       <c r="U55" s="44"/>
       <c r="V55" s="45"/>
     </row>
-    <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:22" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -2969,7 +2990,7 @@
       <c r="U56" s="44"/>
       <c r="V56" s="45"/>
     </row>
-    <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:22" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -2993,7 +3014,7 @@
       <c r="U57" s="44"/>
       <c r="V57" s="45"/>
     </row>
-    <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:22" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3017,7 +3038,7 @@
       <c r="U58" s="44"/>
       <c r="V58" s="45"/>
     </row>
-    <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:22" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3041,7 +3062,7 @@
       <c r="U59" s="44"/>
       <c r="V59" s="45"/>
     </row>
-    <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:22" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3065,7 +3086,7 @@
       <c r="U60" s="44"/>
       <c r="V60" s="45"/>
     </row>
-    <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:22" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3089,7 +3110,7 @@
       <c r="U61" s="44"/>
       <c r="V61" s="45"/>
     </row>
-    <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:22" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3113,7 +3134,7 @@
       <c r="U62" s="44"/>
       <c r="V62" s="45"/>
     </row>
-    <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:22" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3137,7 +3158,7 @@
       <c r="U63" s="44"/>
       <c r="V63" s="45"/>
     </row>
-    <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:22" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3161,7 +3182,7 @@
       <c r="U64" s="44"/>
       <c r="V64" s="45"/>
     </row>
-    <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:22" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3185,7 +3206,7 @@
       <c r="U65" s="44"/>
       <c r="V65" s="45"/>
     </row>
-    <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:22" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3209,7 +3230,7 @@
       <c r="U66" s="44"/>
       <c r="V66" s="45"/>
     </row>
-    <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:22" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3233,7 +3254,7 @@
       <c r="U67" s="44"/>
       <c r="V67" s="45"/>
     </row>
-    <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:22" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3257,7 +3278,7 @@
       <c r="U68" s="44"/>
       <c r="V68" s="45"/>
     </row>
-    <row r="69" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:22" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3281,7 +3302,7 @@
       <c r="U69" s="44"/>
       <c r="V69" s="45"/>
     </row>
-    <row r="70" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:22" ht="16.5">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3305,7 +3326,7 @@
       <c r="U70" s="44"/>
       <c r="V70" s="45"/>
     </row>
-    <row r="71" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:22" ht="16.5">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3329,7 +3350,7 @@
       <c r="U71" s="44"/>
       <c r="V71" s="45"/>
     </row>
-    <row r="72" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:22" ht="16.5">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3353,7 +3374,7 @@
       <c r="U72" s="44"/>
       <c r="V72" s="45"/>
     </row>
-    <row r="73" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:22" ht="16.5">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3377,7 +3398,7 @@
       <c r="U73" s="44"/>
       <c r="V73" s="45"/>
     </row>
-    <row r="74" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:22" ht="16.5">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3401,7 +3422,7 @@
       <c r="U74" s="44"/>
       <c r="V74" s="45"/>
     </row>
-    <row r="75" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:22" ht="16.5">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3425,7 +3446,7 @@
       <c r="U75" s="44"/>
       <c r="V75" s="45"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:22">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3449,7 +3470,7 @@
       <c r="U76" s="44"/>
       <c r="V76" s="45"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:22">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3473,7 +3494,7 @@
       <c r="U77" s="44"/>
       <c r="V77" s="45"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:22">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3497,7 +3518,7 @@
       <c r="U78" s="44"/>
       <c r="V78" s="45"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:22">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3521,7 +3542,7 @@
       <c r="U79" s="44"/>
       <c r="V79" s="45"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:22">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3545,7 +3566,7 @@
       <c r="U80" s="44"/>
       <c r="V80" s="45"/>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:22">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3569,7 +3590,7 @@
       <c r="U81" s="44"/>
       <c r="V81" s="45"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:22">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3593,7 +3614,7 @@
       <c r="U82" s="44"/>
       <c r="V82" s="45"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:22">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3617,7 +3638,7 @@
       <c r="U83" s="44"/>
       <c r="V83" s="45"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:22">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3641,7 +3662,7 @@
       <c r="U84" s="44"/>
       <c r="V84" s="45"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:22">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3665,7 +3686,7 @@
       <c r="U85" s="44"/>
       <c r="V85" s="45"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:22">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3689,7 +3710,7 @@
       <c r="U86" s="44"/>
       <c r="V86" s="45"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:22">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3713,7 +3734,7 @@
       <c r="U87" s="44"/>
       <c r="V87" s="45"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:22">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3737,7 +3758,7 @@
       <c r="U88" s="44"/>
       <c r="V88" s="45"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:22">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3761,7 +3782,7 @@
       <c r="U89" s="44"/>
       <c r="V89" s="45"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:22">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3785,7 +3806,7 @@
       <c r="U90" s="44"/>
       <c r="V90" s="45"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:22">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3809,7 +3830,7 @@
       <c r="U91" s="44"/>
       <c r="V91" s="45"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:22">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -3833,7 +3854,7 @@
       <c r="U92" s="44"/>
       <c r="V92" s="45"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:22">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -3857,7 +3878,7 @@
       <c r="U93" s="44"/>
       <c r="V93" s="45"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:22">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -3881,7 +3902,7 @@
       <c r="U94" s="44"/>
       <c r="V94" s="45"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:22">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -3905,7 +3926,7 @@
       <c r="U95" s="44"/>
       <c r="V95" s="45"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:22">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -3929,7 +3950,7 @@
       <c r="U96" s="44"/>
       <c r="V96" s="45"/>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:22">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -3953,7 +3974,7 @@
       <c r="U97" s="44"/>
       <c r="V97" s="45"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:22">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -3977,7 +3998,7 @@
       <c r="U98" s="44"/>
       <c r="V98" s="45"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:22">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -4001,7 +4022,7 @@
       <c r="U99" s="44"/>
       <c r="V99" s="45"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:22">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -4025,7 +4046,7 @@
       <c r="U100" s="44"/>
       <c r="V100" s="45"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:22">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -4049,7 +4070,7 @@
       <c r="U101" s="44"/>
       <c r="V101" s="45"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:22">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -4073,7 +4094,7 @@
       <c r="U102" s="44"/>
       <c r="V102" s="45"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:22">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4097,7 +4118,7 @@
       <c r="U103" s="44"/>
       <c r="V103" s="45"/>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:22">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4121,7 +4142,7 @@
       <c r="U104" s="44"/>
       <c r="V104" s="45"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:22">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4145,7 +4166,7 @@
       <c r="U105" s="44"/>
       <c r="V105" s="45"/>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:22">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4169,7 +4190,7 @@
       <c r="U106" s="44"/>
       <c r="V106" s="45"/>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:22">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4193,7 +4214,7 @@
       <c r="U107" s="44"/>
       <c r="V107" s="45"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:22">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4217,7 +4238,7 @@
       <c r="U108" s="44"/>
       <c r="V108" s="45"/>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:22">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4241,7 +4262,7 @@
       <c r="U109" s="44"/>
       <c r="V109" s="45"/>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:22">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4265,7 +4286,7 @@
       <c r="U110" s="44"/>
       <c r="V110" s="45"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:22">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4289,7 +4310,7 @@
       <c r="U111" s="44"/>
       <c r="V111" s="45"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:22">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4313,7 +4334,7 @@
       <c r="U112" s="44"/>
       <c r="V112" s="45"/>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:22">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4337,7 +4358,7 @@
       <c r="U113" s="44"/>
       <c r="V113" s="45"/>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:22">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4361,7 +4382,7 @@
       <c r="U114" s="44"/>
       <c r="V114" s="45"/>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:22">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4385,7 +4406,7 @@
       <c r="U115" s="44"/>
       <c r="V115" s="45"/>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:22">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4409,7 +4430,7 @@
       <c r="U116" s="44"/>
       <c r="V116" s="45"/>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:22">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4433,7 +4454,7 @@
       <c r="U117" s="44"/>
       <c r="V117" s="45"/>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:22">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4457,7 +4478,7 @@
       <c r="U118" s="44"/>
       <c r="V118" s="45"/>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:22">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4481,7 +4502,7 @@
       <c r="U119" s="44"/>
       <c r="V119" s="45"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:22">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4505,7 +4526,7 @@
       <c r="U120" s="44"/>
       <c r="V120" s="45"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:22">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4529,7 +4550,7 @@
       <c r="U121" s="44"/>
       <c r="V121" s="45"/>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:22">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4553,7 +4574,7 @@
       <c r="U122" s="44"/>
       <c r="V122" s="45"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:22">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4577,7 +4598,7 @@
       <c r="U123" s="44"/>
       <c r="V123" s="45"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:22">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4601,7 +4622,7 @@
       <c r="U124" s="44"/>
       <c r="V124" s="45"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:22">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4625,7 +4646,7 @@
       <c r="U125" s="44"/>
       <c r="V125" s="45"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:22">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4649,7 +4670,7 @@
       <c r="U126" s="44"/>
       <c r="V126" s="45"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:22">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4673,7 +4694,7 @@
       <c r="U127" s="44"/>
       <c r="V127" s="45"/>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:22">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4697,7 +4718,7 @@
       <c r="U128" s="44"/>
       <c r="V128" s="45"/>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:22">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4721,7 +4742,7 @@
       <c r="U129" s="44"/>
       <c r="V129" s="45"/>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:22">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4745,7 +4766,7 @@
       <c r="U130" s="44"/>
       <c r="V130" s="45"/>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:22">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4769,7 +4790,7 @@
       <c r="U131" s="44"/>
       <c r="V131" s="45"/>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:22">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4793,7 +4814,7 @@
       <c r="U132" s="44"/>
       <c r="V132" s="45"/>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:22">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4817,7 +4838,7 @@
       <c r="U133" s="44"/>
       <c r="V133" s="45"/>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:22">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -4841,7 +4862,7 @@
       <c r="U134" s="44"/>
       <c r="V134" s="45"/>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:22">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -4865,7 +4886,7 @@
       <c r="U135" s="44"/>
       <c r="V135" s="45"/>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:22">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -4885,7 +4906,7 @@
       <c r="Q136" s="45"/>
       <c r="V136" s="45"/>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:22">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -4905,7 +4926,7 @@
       <c r="Q137" s="45"/>
       <c r="V137" s="45"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:22">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -4925,7 +4946,7 @@
       <c r="Q138" s="45"/>
       <c r="V138" s="45"/>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:22">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -4945,7 +4966,7 @@
       <c r="Q139" s="45"/>
       <c r="V139" s="45"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:22">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -4965,7 +4986,7 @@
       <c r="Q140" s="45"/>
       <c r="V140" s="45"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:22">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -4985,7 +5006,7 @@
       <c r="Q141" s="45"/>
       <c r="V141" s="45"/>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:22">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -5005,7 +5026,7 @@
       <c r="Q142" s="45"/>
       <c r="V142" s="45"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:22">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -5025,7 +5046,7 @@
       <c r="Q143" s="45"/>
       <c r="V143" s="45"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:22">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -5045,7 +5066,7 @@
       <c r="Q144" s="45"/>
       <c r="V144" s="45"/>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:22">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -5065,7 +5086,7 @@
       <c r="Q145" s="45"/>
       <c r="V145" s="45"/>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:22">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5085,7 +5106,7 @@
       <c r="Q146" s="45"/>
       <c r="V146" s="45"/>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:22">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5105,7 +5126,7 @@
       <c r="Q147" s="45"/>
       <c r="V147" s="45"/>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:22">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5125,7 +5146,7 @@
       <c r="Q148" s="45"/>
       <c r="V148" s="45"/>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:22">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5145,7 +5166,7 @@
       <c r="Q149" s="45"/>
       <c r="V149" s="45"/>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:22">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5165,7 +5186,7 @@
       <c r="Q150" s="45"/>
       <c r="V150" s="45"/>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:22">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5185,7 +5206,7 @@
       <c r="Q151" s="45"/>
       <c r="V151" s="45"/>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:22">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5205,7 +5226,7 @@
       <c r="Q152" s="45"/>
       <c r="V152" s="45"/>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:22">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5225,7 +5246,7 @@
       <c r="Q153" s="45"/>
       <c r="V153" s="45"/>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:22">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5245,7 +5266,7 @@
       <c r="Q154" s="45"/>
       <c r="V154" s="45"/>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:22">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5265,7 +5286,7 @@
       <c r="Q155" s="45"/>
       <c r="V155" s="45"/>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:22">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5285,7 +5306,7 @@
       <c r="Q156" s="45"/>
       <c r="V156" s="45"/>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:22">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5305,7 +5326,7 @@
       <c r="Q157" s="45"/>
       <c r="V157" s="45"/>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:22">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5325,7 +5346,7 @@
       <c r="Q158" s="45"/>
       <c r="V158" s="45"/>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:22">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5345,7 +5366,7 @@
       <c r="Q159" s="45"/>
       <c r="V159" s="45"/>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:22">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5365,7 +5386,7 @@
       <c r="Q160" s="45"/>
       <c r="V160" s="45"/>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:22">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5385,7 +5406,7 @@
       <c r="Q161" s="45"/>
       <c r="V161" s="45"/>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:22">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5405,7 +5426,7 @@
       <c r="Q162" s="45"/>
       <c r="V162" s="45"/>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:22">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5425,7 +5446,7 @@
       <c r="Q163" s="45"/>
       <c r="V163" s="45"/>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:22">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5445,7 +5466,7 @@
       <c r="Q164" s="45"/>
       <c r="V164" s="45"/>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:22">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5465,7 +5486,7 @@
       <c r="Q165" s="45"/>
       <c r="V165" s="45"/>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:22">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5485,7 +5506,7 @@
       <c r="Q166" s="45"/>
       <c r="V166" s="45"/>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:22">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5505,7 +5526,7 @@
       <c r="Q167" s="45"/>
       <c r="V167" s="45"/>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:22">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5525,7 +5546,7 @@
       <c r="Q168" s="45"/>
       <c r="V168" s="45"/>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:22">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5545,7 +5566,7 @@
       <c r="Q169" s="45"/>
       <c r="V169" s="45"/>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:22">
       <c r="A170" s="44"/>
       <c r="B170" s="44"/>
       <c r="C170" s="44"/>
@@ -5600,14 +5621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
@@ -5627,7 +5648,7 @@
     <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="62" t="s">
         <v>52</v>
       </c>
@@ -5683,7 +5704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="66"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -5703,7 +5724,7 @@
       <c r="Q2" s="75"/>
       <c r="R2" s="75"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="66"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5723,7 +5744,7 @@
       <c r="Q3" s="75"/>
       <c r="R3" s="75"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5750,14 +5771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
@@ -5769,7 +5790,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="85" t="s">
         <v>80</v>
       </c>
@@ -5784,7 +5805,7 @@
       <c r="J1" s="86"/>
       <c r="K1" s="86"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
@@ -5819,7 +5840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="87"/>
       <c r="B3" s="87"/>
       <c r="C3" s="20"/>
@@ -5832,7 +5853,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="88"/>
       <c r="B4" s="89"/>
       <c r="C4" s="20"/>
@@ -5845,7 +5866,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="87"/>
       <c r="B5" s="87"/>
       <c r="C5" s="20"/>
@@ -5858,7 +5879,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="89"/>
       <c r="B6" s="89"/>
       <c r="C6" s="20"/>
@@ -5871,7 +5892,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="89"/>
       <c r="B7" s="89"/>
       <c r="C7" s="20"/>
@@ -5884,7 +5905,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="89"/>
       <c r="B8" s="89"/>
       <c r="C8" s="20"/>
@@ -5897,7 +5918,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="89"/>
       <c r="B9" s="89"/>
       <c r="C9" s="20"/>
@@ -5910,7 +5931,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="88"/>
       <c r="B10" s="88"/>
       <c r="C10" s="20"/>
@@ -5923,7 +5944,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5950,14 +5971,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -5972,7 +5993,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="90" t="s">
         <v>21</v>
       </c>
@@ -5989,7 +6010,7 @@
       <c r="L1" s="90"/>
       <c r="M1" s="91"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="92"/>
@@ -6004,7 +6025,7 @@
       <c r="L2" s="92"/>
       <c r="M2" s="93"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6045,7 +6066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6060,7 +6081,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6075,7 +6096,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6090,7 +6111,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6105,7 +6126,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6120,7 +6141,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6135,7 +6156,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6150,7 +6171,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6165,7 +6186,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6180,7 +6201,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6195,7 +6216,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6210,7 +6231,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6225,7 +6246,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6264,14 +6285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6286,7 +6307,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="90" t="s">
         <v>21</v>
       </c>
@@ -6303,7 +6324,7 @@
       <c r="L1" s="90"/>
       <c r="M1" s="91"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="92"/>
@@ -6318,7 +6339,7 @@
       <c r="L2" s="92"/>
       <c r="M2" s="93"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6359,7 +6380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6374,7 +6395,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6389,7 +6410,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6404,7 +6425,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6419,7 +6440,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6434,7 +6455,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6449,7 +6470,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6464,7 +6485,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6479,7 +6500,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6494,7 +6515,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6509,7 +6530,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6524,7 +6545,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6539,7 +6560,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6578,14 +6599,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6600,7 +6621,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="90" t="s">
         <v>21</v>
       </c>
@@ -6617,7 +6638,7 @@
       <c r="L1" s="90"/>
       <c r="M1" s="91"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="92"/>
@@ -6632,7 +6653,7 @@
       <c r="L2" s="92"/>
       <c r="M2" s="93"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6673,7 +6694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6688,7 +6709,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6703,7 +6724,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6718,7 +6739,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6733,7 +6754,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6748,7 +6769,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6763,7 +6784,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6778,7 +6799,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6793,7 +6814,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6808,7 +6829,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6823,7 +6844,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6838,7 +6859,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6853,7 +6874,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6892,14 +6913,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -6916,7 +6937,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="90" t="s">
         <v>21</v>
       </c>
@@ -6933,7 +6954,7 @@
       <c r="L1" s="90"/>
       <c r="M1" s="91"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="92"/>
@@ -6948,7 +6969,7 @@
       <c r="L2" s="92"/>
       <c r="M2" s="93"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6989,7 +7010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7004,7 +7025,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7019,7 +7040,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7034,7 +7055,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7049,7 +7070,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7064,7 +7085,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7079,7 +7100,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7094,7 +7115,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7109,7 +7130,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7124,7 +7145,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7139,7 +7160,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7154,7 +7175,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7169,7 +7190,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7208,14 +7229,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7226,7 +7247,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -7252,7 +7273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="27">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -7278,7 +7299,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7288,7 +7309,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7298,7 +7319,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7308,7 +7329,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7318,7 +7339,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7328,7 +7349,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7338,7 +7359,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7348,7 +7369,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7358,7 +7379,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7368,7 +7389,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7378,7 +7399,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7388,7 +7409,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7398,7 +7419,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7408,7 +7429,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7418,7 +7439,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7428,7 +7449,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7438,7 +7459,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
